--- a/data/liverpool-Test-Data.xlsx
+++ b/data/liverpool-Test-Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pressure Gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind Gradient</t>
   </si>
 </sst>
 </file>
@@ -62,6 +59,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,16 +119,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,21 +141,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,15 +182,12 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>44378</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -219,15 +209,12 @@
         <f aca="false">F3-F2</f>
         <v>-2</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>44379</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -249,15 +236,12 @@
         <f aca="false">F4-F3</f>
         <v>-6</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>44380</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
         <v>20.3</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -279,15 +263,12 @@
         <f aca="false">F5-F4</f>
         <v>-5</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>44381</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -309,15 +290,12 @@
         <f aca="false">F6-F5</f>
         <v>-3</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>44382</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -337,9 +315,6 @@
       </c>
       <c r="H6" s="0" t="n">
         <v>-3</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
